--- a/src/test/resource/Datasheets/EbayDataSheet.xlsx
+++ b/src/test/resource/Datasheets/EbayDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasel\workspace\SundayCaptAmericaProject\src\test\resource\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A681D3B-E710-48E6-A4E8-35DAB45D9BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0E280-EB9C-456A-87AB-D31720F1F6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10344" yWindow="564" windowWidth="12708" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17676" yWindow="1020" windowWidth="4812" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EbayDataSheet" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
